--- a/loaded_influencer_data/amymarena/amymarena_video.xlsx
+++ b/loaded_influencer_data/amymarena/amymarena_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,1628 +506,1818 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@amymarena/video/7489625865945468166</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>401</v>
+      </c>
+      <c r="C2" t="n">
+        <v>52</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>여기가 너무 좋아 @rhode skin @pinterest @Charlotte Tilbury @Youth To The People @The Ordinary #relatable</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>15.21197007481297</v>
+      </c>
+      <c r="I2" t="n">
+        <v>12.96758104738155</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.244389027431422</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7481296758104738</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@amymarena/video/7489272329931935031</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2156</v>
+      </c>
+      <c r="C3" t="n">
+        <v>177</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>내 카트 준비 @sephoracanada @sephora #sephorasale #sephora #sephorahaul #relatable #trend #trending</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8.951762523191094</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.20964749536178</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.7421150278293136</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.3246753246753247</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-04-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@amymarena/video/7488134103351512325</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>588</v>
+      </c>
+      <c r="C4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>당신은 무슨 일이 일어날 수 있는지 결코 알지 못합니다 @Huda Beauty @rhode skin @Diorbeauty</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>12.07482993197279</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10.54421768707483</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.530612244897959</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5102040816326531</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@amymarena/video/7487810172857994501</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>600</v>
+      </c>
+      <c r="C5" t="n">
+        <v>63</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>이것은 당신의 삶을 낭만적으로 만드는 당신의 신호입니다 @'Ôrəbella @rhode skin #makeup #relatable</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>11.83333333333333</v>
+      </c>
+      <c r="I5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7487030159187529015</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1131</v>
-      </c>
-      <c r="C2" t="n">
-        <v>86</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="B6" t="n">
+        <v>1398</v>
+      </c>
+      <c r="C6" t="n">
+        <v>102</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
         <v>2</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Stay away
-@Huda Beauty @Huda
-#makeup #expensivemakeup #makeuptok #beautytok</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7.780725022104333</v>
-      </c>
-      <c r="I2" t="n">
-        <v>7.603890362511052</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1768346595932803</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.1768346595932803</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>2025-03-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>떨어져 @Huda Beauty @Huda #makeup #expensivemakeup #makeuptok #beautytok #trending #trend #ew</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7.582260371959943</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7.296137339055794</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2861230329041488</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.1430615164520744</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7486693878569913655</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>855</v>
-      </c>
-      <c r="C3" t="n">
-        <v>49</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Taking notes📝📝
-@makeupforever @Diorbeauty
-#glowuptips #glowup #relatable #trending #trend</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7.017543859649122</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.730994152046784</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.286549707602339</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.9356725146198831</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="B7" t="n">
+        <v>993</v>
+      </c>
+      <c r="C7" t="n">
+        <v>55</v>
+      </c>
+      <c r="D7" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>메모하기📝📝 @makeupforever @Diorbeauty #glowuptips #glowup #relatable #trending #trend #relate</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7.049345417925479</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.53877139979859</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.510574018126888</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.906344410876133</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>2025-03-28</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7485943505324461317</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>7294</v>
-      </c>
-      <c r="C4" t="n">
-        <v>109</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="B8" t="n">
+        <v>7978</v>
+      </c>
+      <c r="C8" t="n">
+        <v>122</v>
+      </c>
+      <c r="D8" t="n">
         <v>20</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Say less, when and where?
-@Huda @Huda Beauty
-#viralmakeup #trending #trend #hudabeauty</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1.768576912530847</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.494378941595832</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.2741979709350151</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.109679188374006</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>적은 말, 언제 어디서? @Huda @Huda Beauty #viralmakeup #trending #trend #hudabeauty #settingspray</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1.779894710453748</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.529205314615192</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.250689395838556</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.1128102281273502</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7485599376182660358</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>1044</v>
-      </c>
-      <c r="C5" t="n">
-        <v>75</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="B9" t="n">
+        <v>1116</v>
+      </c>
+      <c r="C9" t="n">
+        <v>76</v>
+      </c>
+      <c r="D9" t="n">
         <v>9</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>My friends are so blessed to have someone like me in their life
-@Huda Beauty
-#makeup #makeuptok #smilelines</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8.045977011494253</v>
-      </c>
-      <c r="I5" t="n">
-        <v>7.183908045977011</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.8620689655172413</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.09578544061302681</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>내 친구들은 그들의 삶에 나 같은 사람이 있다는 것이 너무 축복 받았습니다. @Huda Beauty #makeup #makeuptok</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7.616487455197133</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6.810035842293908</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.8064516129032258</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.08960573476702509</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>2025-03-25</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7484115214888078647</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>1285</v>
-      </c>
-      <c r="C6" t="n">
-        <v>121</v>
-      </c>
-      <c r="D6" t="n">
-        <v>27</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="B10" t="n">
+        <v>1477</v>
+      </c>
+      <c r="C10" t="n">
+        <v>126</v>
+      </c>
+      <c r="D10" t="n">
+        <v>28</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>5</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>I still am so shocked
-Thank you @Huda @Huda Beauty 🫶🏼
-#hudabeauty #prpackage #makeuptok #huda</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>11.51750972762646</v>
-      </c>
-      <c r="I6" t="n">
-        <v>9.416342412451362</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.101167315175097</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.3891050583657588</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>난 아직도 너무 충격을 받았어 감사합니다 🫶🏼 @Huda @Huda Beauty #hudabeauty #prpackage #makeuptok</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10.42654028436019</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8.530805687203792</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.895734597156398</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.3385240352064997</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2025-03-21</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7483732488783727877</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B11" t="n">
         <v>1296</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C11" t="n">
         <v>97</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D11" t="n">
         <v>9</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>3</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>I fear i’ve always been this way
 @Diorbeauty @YSL Beauty
 #stress #relatable #trending #trend #relate</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H11" t="n">
         <v>8.179012345679013</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I11" t="n">
         <v>7.484567901234568</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.6944444444444444</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L11" t="n">
         <v>0.2314814814814815</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7483359611496566022</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B12" t="n">
         <v>1938</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C12" t="n">
         <v>114</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D12" t="n">
         <v>12</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>4</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Why is everybody so serious
 @ILIA Beauty @YSL Beauty
 #relatable #trending #trend #relate #makeuptok</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H12" t="n">
         <v>6.5015479876161</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I12" t="n">
         <v>5.88235294117647</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.6191950464396285</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L12" t="n">
         <v>0.2063983488132095</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7482248917728365830</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B13" t="n">
         <v>7956</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C13" t="n">
         <v>331</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D13" t="n">
         <v>17</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>17</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Ur lying to yourself if you say otherwise
 @L’Oréal Paris
 #relate #makeup #lashes #trend #trending #yycinfluencer</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H13" t="n">
         <v>4.374057315233785</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I13" t="n">
         <v>4.160382101558572</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.2136752136752137</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L13" t="n">
         <v>0.2136752136752137</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7481481537737821495</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B14" t="n">
         <v>2152</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C14" t="n">
         <v>128</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D14" t="n">
         <v>15</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>11</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>CALGARYYYY new @HEAL location in Aspen Landing opening this Saturday
 First 100 guests get merch🫣 first 30 people get free açai. AND you could get a chance to win</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H14" t="n">
         <v>6.644981412639406</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I14" t="n">
         <v>5.947955390334572</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.6970260223048327</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L14" t="n">
         <v>0.5111524163568774</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7481122291464539397</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B15" t="n">
         <v>1119</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C15" t="n">
         <v>95</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D15" t="n">
         <v>8</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>6</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>specifically when I can’t find anything to wear
 @Summer Fridays @rhode skin
 #overstimulated</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H15" t="n">
         <v>9.204647006255586</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I15" t="n">
         <v>8.489722966934764</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.7149240393208222</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L15" t="n">
         <v>0.5361930294906166</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7480377212907113733</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B16" t="n">
         <v>7325</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C16" t="n">
         <v>293</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D16" t="n">
         <v>4</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>3</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>I get overstimulated when my sleeves get wet
 @rhode skin @Summer Fridays
 #relatable #relate #trend #trending</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H16" t="n">
         <v>4.054607508532423</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I16" t="n">
         <v>4</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.05460750853242321</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L16" t="n">
         <v>0.0409556313993174</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7480008268132257029</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B17" t="n">
         <v>7143</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C17" t="n">
         <v>467</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D17" t="n">
         <v>22</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>17</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>The struggle is real
 #relatable #relate #trend #trending #hellokitty #shopping #haul</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H17" t="n">
         <v>6.845863082738345</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I17" t="n">
         <v>6.537869242615148</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.3079938401231975</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L17" t="n">
         <v>0.2379952400951981</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7479643964891532550</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B18" t="n">
         <v>835</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C18" t="n">
         <v>86</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D18" t="n">
         <v>11</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>2</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>The struggle is real
 #relatable #relate #trend #trending #hellokitty #shopping #haul</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H18" t="n">
         <v>11.61676646706587</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I18" t="n">
         <v>10.29940119760479</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>1.317365269461078</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L18" t="n">
         <v>0.2395209580838323</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7479273532745059589</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B19" t="n">
         <v>840</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C19" t="n">
         <v>72</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>9</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>No because Covid has made me lose so much hair. Use code Marena20 for 20% off your first service🤭
 @Sumes</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H19" t="n">
         <v>10.71428571428571</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I19" t="n">
         <v>8.571428571428571</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>2.142857142857143</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L19" t="n">
         <v>1.071428571428571</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7478905213512863031</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B20" t="n">
         <v>2406</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C20" t="n">
         <v>149</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D20" t="n">
         <v>5</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>5</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Something about this song
 @PARTYNEXTDOOR @makeupbymario
 #makeup #makeuptok</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H20" t="n">
         <v>6.400665004156276</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I20" t="n">
         <v>6.192851205320033</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.2078137988362427</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L20" t="n">
         <v>0.2078137988362427</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-07</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7478530987236855046</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B21" t="n">
         <v>1130</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C21" t="n">
         <v>93</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D21" t="n">
         <v>6</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>1</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Something about this song
 @PARTYNEXTDOOR @makeupbymario
 #makeup #makeuptok</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H21" t="n">
         <v>8.761061946902656</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I21" t="n">
         <v>8.230088495575222</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.5309734513274336</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L21" t="n">
         <v>0.08849557522123894</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7478164084412714246</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B22" t="n">
         <v>9984</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C22" t="n">
         <v>506</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>15</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>A blessing fr
 @makeupbymario
 #makeup #makeuptok #middleeastern #arab #yycinfluencer #trend</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H22" t="n">
         <v>5.278445512820513</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I22" t="n">
         <v>5.068108974358974</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.2103365384615385</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L22" t="n">
         <v>0.1502403846153846</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7477787023407942917</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B23" t="n">
         <v>13500</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C23" t="n">
         <v>367</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D23" t="n">
         <v>15</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>18</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Secret animosity
 @'Ôrəbella @Bella Hadid
 #perfume #perfumetok #orebella #bellahadid #animosity</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H23" t="n">
         <v>2.829629629629629</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I23" t="n">
         <v>2.718518518518518</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.1111111111111111</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L23" t="n">
         <v>0.1333333333333333</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7477417915394919685</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B24" t="n">
         <v>2469</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C24" t="n">
         <v>86</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>3</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>I thought i was going to HATE this
 @ONE SIZE BEAUTY
 #makeup #makeuptok #settingspray #onesize</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H24" t="n">
         <v>4.414742810854597</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I24" t="n">
         <v>3.483191575536654</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.9315512353179425</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L24" t="n">
         <v>0.1215066828675577</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-03</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7477044757131185463</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B25" t="n">
         <v>1662</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C25" t="n">
         <v>92</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D25" t="n">
         <v>9</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>3</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>jk i love the attention
 @YSL Beauty
 #makeup #makeuptok #relatable #brazilianphonk #relate #yycinfluencer</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H25" t="n">
         <v>6.077015643802648</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I25" t="n">
         <v>5.535499398315283</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.5415162454873645</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L25" t="n">
         <v>0.1805054151624549</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7476675479953509637</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B26" t="n">
         <v>1882</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C26" t="n">
         <v>137</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D26" t="n">
         <v>7</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>4</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>A new character unlocked
 #hairtok #hairstyle #haircare #trend #relate #relatable #yycinfluencer</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H26" t="n">
         <v>7.65143464399575</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I26" t="n">
         <v>7.279489904357067</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.3719447396386822</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L26" t="n">
         <v>0.2125398512221041</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7476304302470974725</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B27" t="n">
         <v>6273</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C27" t="n">
         <v>467</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D27" t="n">
         <v>11</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>21</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>The anxiety is LOUD
 @YSL Beauty @Diorbeauty
 #doechii #makeuptok #makeup #yycinfluencer #trending</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H27" t="n">
         <v>7.619958552526701</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I27" t="n">
         <v>7.444603857803283</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>0.1753546947234178</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L27" t="n">
         <v>0.3347680535628886</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7475930317325438213</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B28" t="n">
         <v>4940</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C28" t="n">
         <v>331</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D28" t="n">
         <v>10</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>27</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Everyone I speak to needs to know I’m arab
 #makeup #makeuptok #trending #relate #relatable</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H28" t="n">
         <v>6.902834008097165</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I28" t="n">
         <v>6.700404858299596</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>0.2024291497975708</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L28" t="n">
         <v>0.5465587044534412</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7475560188888730935</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B29" t="n">
         <v>10900</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C29" t="n">
         <v>221</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D29" t="n">
         <v>24</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>10</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Everyone I speak to needs to know I’m arab
 #makeup #makeuptok #trending #relate #relatable</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H29" t="n">
         <v>2.247706422018349</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I29" t="n">
         <v>2.027522935779817</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>0.2201834862385321</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L29" t="n">
         <v>0.09174311926605505</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7475186069567327543</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B30" t="n">
         <v>2019</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C30" t="n">
         <v>118</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D30" t="n">
         <v>9</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>3</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Makeup isn’t cheap🤨
 @YSL Beauty @Diorbeauty
 #makeup #makeuptok #trending #trend #relatable #yycinfluencer</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H30" t="n">
         <v>6.29024269440317</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I30" t="n">
         <v>5.844477464091134</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.4457652303120356</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L30" t="n">
         <v>0.1485884101040119</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7474814320799534342</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B31" t="n">
         <v>1725</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C31" t="n">
         <v>83</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D31" t="n">
         <v>9</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>2</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>10 different shades recommended
 @Too Faced @maccosmetics @makeupforever @Diorbeauty</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H31" t="n">
         <v>5.333333333333334</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I31" t="n">
         <v>4.811594202898551</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.5217391304347827</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L31" t="n">
         <v>0.1159420289855072</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7474453572436921606</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B32" t="n">
         <v>738</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C32" t="n">
         <v>61</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D32" t="n">
         <v>18</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>4</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>My lashes cover the eyeliner
 @Maybelline NY @Saie @MERIT Beauty @BenefitCosmeticsCA</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H32" t="n">
         <v>10.70460704607046</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I32" t="n">
         <v>8.265582655826559</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>2.439024390243902</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L32" t="n">
         <v>0.5420054200542005</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7474078258674388279</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B33" t="n">
         <v>5480</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C33" t="n">
         <v>176</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D33" t="n">
         <v>14</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>9</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>What’s the best blush? 👀👀
 @Huda Beauty @Huda
 #blush #trend #trending #yycinfluencer #makeup #relatable</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H33" t="n">
         <v>3.467153284671533</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I33" t="n">
         <v>3.211678832116788</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.2554744525547445</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L33" t="n">
         <v>0.1642335766423358</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7473701593762811143</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B34" t="n">
         <v>2344</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C34" t="n">
         <v>172</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D34" t="n">
         <v>10</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>4</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>WHERE TF THE FUNCTION??
 @Summer Fridays
 #Drake #champagnepapi #nokia #makeup #food #relatable</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H34" t="n">
         <v>7.764505119453926</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I34" t="n">
         <v>7.337883959044368</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>0.4266211604095563</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L34" t="n">
         <v>0.1706484641638225</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7472967722075262263</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B35" t="n">
         <v>6390</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C35" t="n">
         <v>272</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D35" t="n">
         <v>11</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>10</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Watch it be the song of the summer
 #trend #trending #drake #champagnepapi</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H35" t="n">
         <v>4.428794992175273</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I35" t="n">
         <v>4.256651017214398</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.1721439749608764</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L35" t="n">
         <v>0.1564945226917058</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7472185776772582661</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B36" t="n">
         <v>5750</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C36" t="n">
         <v>398</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D36" t="n">
         <v>24</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>11</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Watch it be the song of the summer
 #trend #trending #drake #champagnepapi</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H36" t="n">
         <v>7.339130434782609</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I36" t="n">
         <v>6.921739130434783</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.4173913043478261</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L36" t="n">
         <v>0.191304347826087</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-17</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7471081336925687095</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B37" t="n">
         <v>653</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C37" t="n">
         <v>49</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D37" t="n">
         <v>11</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>2</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>No such thing
 @Armani beauty Cheek tint in delicate mauve with the Aqua highlighter in Halo
@@ -2135,722 +2325,722 @@
 #makeup</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H37" t="n">
         <v>9.188361408882082</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I37" t="n">
         <v>7.503828483920367</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>1.684532924961715</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L37" t="n">
         <v>0.3062787136294028</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7470675965157461303</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B38" t="n">
         <v>4606</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C38" t="n">
         <v>146</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D38" t="n">
         <v>23</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>3</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>FINALLLYYYYY
 @Summer Fridays
 #makeuptok #relatable #relate #summerfridays #birthdaycake</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H38" t="n">
         <v>3.669127225358229</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I38" t="n">
         <v>3.16977854971776</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.499348675640469</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L38" t="n">
         <v>0.06513243595310464</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7469983336216218885</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B39" t="n">
         <v>1345</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C39" t="n">
         <v>80</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D39" t="n">
         <v>21</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>1</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>On my vision board🕷️
 @Lancôme
 #lashes #makeup #lancome #trend #relate #relatable #giveon</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H39" t="n">
         <v>7.509293680297398</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I39" t="n">
         <v>5.947955390334572</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>1.561338289962825</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L39" t="n">
         <v>0.07434944237918216</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7467382873675369734</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B40" t="n">
         <v>959</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C40" t="n">
         <v>91</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D40" t="n">
         <v>24</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>6</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Mind at peace
 @rhode skin
 #rhode #makeup #relatable #trend</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H40" t="n">
         <v>11.99165797705944</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I40" t="n">
         <v>9.48905109489051</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>2.502606882168926</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L40" t="n">
         <v>0.6256517205422315</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-04</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7466979283668356358</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B41" t="n">
         <v>806</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C41" t="n">
         <v>97</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D41" t="n">
         <v>17</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>4</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Love sundays
 #sundayreset #makeup #skincare #relate #relatable #trend #trending</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H41" t="n">
         <v>14.1439205955335</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I41" t="n">
         <v>12.03473945409429</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>2.109181141439206</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L41" t="n">
         <v>0.4962779156327544</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-02-03</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7465507730787208453</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B42" t="n">
         <v>1685</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C42" t="n">
         <v>77</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D42" t="n">
         <v>12</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>4</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>how you coming FAST
 @Huda Beauty @Huda
 #relatable #relate #trend #trending #hudabeauty #makeup</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H42" t="n">
         <v>5.281899109792285</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I42" t="n">
         <v>4.56973293768546</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>0.7121661721068249</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L42" t="n">
         <v>0.2373887240356083</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-01-30</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7465179956566347013</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B43" t="n">
         <v>828</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C43" t="n">
         <v>67</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D43" t="n">
         <v>7</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>1</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Like leave me alone
 #lashes #makeup #relate #relatable #trend #trending</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H43" t="n">
         <v>8.937198067632849</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I43" t="n">
         <v>8.091787439613526</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.8454106280193237</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L43" t="n">
         <v>0.1207729468599034</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-01-29</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7464819261257649414</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B44" t="n">
         <v>750</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C44" t="n">
         <v>56</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D44" t="n">
         <v>10</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>4</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Unmatched coverage✨
 Honest review of the Luminous Silk foundation
 @Armani beauty @sephora</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H44" t="n">
         <v>8.799999999999999</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I44" t="n">
         <v>7.466666666666668</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L44" t="n">
         <v>0.5333333333333333</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-01-28</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7464452075192077574</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B45" t="n">
         <v>1386</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C45" t="n">
         <v>75</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D45" t="n">
         <v>9</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>1</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Can we normalize this
 #curlyhair #trend #relate #relatable #hair #frizzyhair #normalize</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H45" t="n">
         <v>6.060606060606061</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I45" t="n">
         <v>5.411255411255411</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.6493506493506493</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L45" t="n">
         <v>0.07215007215007214</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-01-27</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7464049236049497350</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B46" t="n">
         <v>859</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C46" t="n">
         <v>76</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D46" t="n">
         <v>14</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>3</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>I’m still gonna buy everything tho
 @rhode skin @Huda Beauty @Kayali @Rare Beauty @Mona Monica Kattan🧸</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H46" t="n">
         <v>10.47729918509895</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I46" t="n">
         <v>8.847497089639116</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>1.629802095459837</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L46" t="n">
         <v>0.3492433061699651</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-01-26</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7463296432112520454</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B47" t="n">
         <v>829</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C47" t="n">
         <v>50</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D47" t="n">
         <v>13</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>3</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>I’m still gonna buy everything tho
 @rhode skin @Huda Beauty @Kayali @Rare Beauty @Mona Monica Kattan🧸</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H47" t="n">
         <v>7.599517490952954</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I47" t="n">
         <v>6.031363088057901</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>1.568154402895054</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L47" t="n">
         <v>0.3618817852834741</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-01-24</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7462940340450905350</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B48" t="n">
         <v>676</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C48" t="n">
         <v>60</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D48" t="n">
         <v>14</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>2</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>It’s YOUR fault
 #relatable #projectpan #relate #trend #makeup #skincare #relatable</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H48" t="n">
         <v>10.94674556213018</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I48" t="n">
         <v>8.875739644970414</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>2.071005917159764</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L48" t="n">
         <v>0.2958579881656805</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-01-23</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7462572851225185541</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B49" t="n">
         <v>4806</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C49" t="n">
         <v>168</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D49" t="n">
         <v>27</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>5</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>This collection is EVERYTHING
 @Huda @Huda Beauty
 #hudabeauty #huda #makeup #trend #ube</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H49" t="n">
         <v>4.057428214731586</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I49" t="n">
         <v>3.495630461922597</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.5617977528089888</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L49" t="n">
         <v>0.1040366208905535</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-01-22</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7462196410960645382</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B50" t="n">
         <v>33600</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C50" t="n">
         <v>941</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D50" t="n">
         <v>29</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>151</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>The minis are so cute
 @Huda Beauty @Huda
 #hudabeauty #huda #makeup #trend #trending #relatable #lipcombo</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H50" t="n">
         <v>2.886904761904762</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I50" t="n">
         <v>2.800595238095238</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>0.08630952380952381</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L50" t="n">
         <v>0.4494047619047619</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-01-21</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@amymarena/video/7461368831877975301</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B51" t="n">
         <v>595</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C51" t="n">
         <v>34</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D51" t="n">
         <v>6</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>1</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Monthly maintenance🫶🏼
 Use this code
@@ -2858,182 +3048,27 @@
 @Waxwell #brows #yyc #calgary #trend</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H51" t="n">
         <v>6.722689075630252</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I51" t="n">
         <v>5.714285714285714</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>1.008403361344538</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L51" t="n">
         <v>0.1680672268907563</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-01-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@amymarena/video/7459591942247075078</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>635</v>
-      </c>
-      <c r="C48" t="n">
-        <v>41</v>
-      </c>
-      <c r="D48" t="n">
-        <v>9</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Give me a minute to catch up
-@Huda Beauty @Huda
-#relatable #relate #trend #makeup #latinamakeup</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>7.874015748031496</v>
-      </c>
-      <c r="I48" t="n">
-        <v>6.456692913385827</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1.417322834645669</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.1574803149606299</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-01-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@amymarena/video/7459217985421479174</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>1212</v>
-      </c>
-      <c r="C49" t="n">
-        <v>105</v>
-      </c>
-      <c r="D49" t="n">
-        <v>2</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>3</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Be so fr
-#relatable #trend #trending</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>8.828382838283828</v>
-      </c>
-      <c r="I49" t="n">
-        <v>8.663366336633663</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.165016501650165</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.2475247524752475</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-01-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@amymarena/video/7458859564721507589</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1015</v>
-      </c>
-      <c r="C50" t="n">
-        <v>63</v>
-      </c>
-      <c r="D50" t="n">
-        <v>9</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>4</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Project pan in the works
-@laneigeca
-#trending #trend #relatable #projectpan #makeup</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>7.093596059113301</v>
-      </c>
-      <c r="I50" t="n">
-        <v>6.206896551724138</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.8866995073891626</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.3940886699507389</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-01-12</t>
         </is>
       </c>
     </row>
